--- a/Results/comparison_results/Hard_comparison/ReAct_Hard_langsmith_extraction.xlsx
+++ b/Results/comparison_results/Hard_comparison/ReAct_Hard_langsmith_extraction.xlsx
@@ -463,230 +463,230 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Move Robot40 to location (4, 8) and remove the toolkit.</t>
+          <t>Move Robot21 to location (6, 12) and remove the toolkit.</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81.544426</v>
+        <v>96.392025</v>
       </c>
       <c r="C2" t="n">
-        <v>13980</v>
+        <v>13546</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.04314</t>
+          <t>0.04161</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>aa6c5e1a-e2f7-4896-b886-cbf2ac56a9ab</t>
+          <t>a41b30bc-f7db-45b9-8182-a512b305d635</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Move Robot40 to location (6, 2) and remove the liquid spill.</t>
+          <t>Move Robot41 to location (1, 11) and remove the liquid spill.</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56.210297</v>
+        <v>107.572532</v>
       </c>
       <c r="C3" t="n">
-        <v>10234</v>
+        <v>13620</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.03012</t>
+          <t>0.04257</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11a65a8e-2b74-40db-81da-622835ea1a2f</t>
+          <t>1f84bbbf-e00a-45ec-80e7-1f6ed186be91</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Move Robot9 to location (12, 3) and remove the large debris.</t>
+          <t>Move Robot9 to location (1, 5) and remove the large debris.</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61.565247</v>
+        <v>66.73797</v>
       </c>
       <c r="C4" t="n">
-        <v>10545</v>
+        <v>10479</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.03366</t>
+          <t>0.03246</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4d8afc1a-5ee4-487e-84d4-236095b43408</t>
+          <t>6bcf9400-440f-40d2-b339-cda51dd30392</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Move Robot35 to location (2, 11) and remove the dust.</t>
+          <t>Move Robot42 to location (1, 11) and remove the dust.</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74.307362</v>
+        <v>96.28057</v>
       </c>
       <c r="C5" t="n">
-        <v>13824</v>
+        <v>13608</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.04029</t>
+          <t>0.04272</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1d4c9d14-a601-4db8-a54f-0b3542ff441b</t>
+          <t>ba6f88ce-7e0e-465a-8ab9-f6e0ac7b52c1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Move Robot26 to location (12, 1) and remove the grass.</t>
+          <t>Move Robot32 to location (3, 9) and remove the grass.</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>73.93194099999999</v>
+        <v>98.646495</v>
       </c>
       <c r="C6" t="n">
-        <v>13943</v>
+        <v>13731</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.04161</t>
+          <t>0.04476</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>bb7b5242-a263-4309-b8f6-058cf7cf6678</t>
+          <t>a76c3491-e4ff-43a7-8b16-29c17b37d81c</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Move Robot41 to location (4, 11) and remove the small debris.</t>
+          <t>Move Robot14 to location (11, 12) and remove the small debris.</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>86.250238</v>
+        <v>98.8925</v>
       </c>
       <c r="C7" t="n">
-        <v>14256</v>
+        <v>14149</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.04551</t>
+          <t>0.04533</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0ffb4cb5-bea4-472e-acb0-cfb9f26e1b1b</t>
+          <t>8375493b-21ac-4113-84ee-4f6c15df3ce0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Move Robot2 to location (9, 1) and remove the vehicle.</t>
+          <t>Move Robot39 to location (6, 4) and remove the vehicle.</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>79.82298400000001</v>
+        <v>97.838499</v>
       </c>
       <c r="C8" t="n">
-        <v>13938</v>
+        <v>13940</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.04233</t>
+          <t>0.04479</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>01cb5c5e-7a0d-460d-8785-0164c032a25e</t>
+          <t>1aa344cc-78cd-4399-8244-e3e0ce1de67f</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Move Robot28 to location (11, 6) and remove the construction materials.</t>
+          <t>Move Robot15 to location (11, 2) and remove the construction materials.</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>67.68822299999999</v>
+        <v>88.11750000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>13869</v>
+        <v>13984</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.04107</t>
+          <t>0.04434</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4f599735-7b4c-428a-814b-6a3451a5de34</t>
+          <t>25d7bd10-7160-4c30-b979-9a59accf2fa9</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Move Robot39 to location (6, 1) and remove the tree branches.</t>
+          <t>Move Robot2 to location (1, 10) and remove the tree branches.</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>79.769824</v>
+        <v>101.209372</v>
       </c>
       <c r="C10" t="n">
-        <v>14396</v>
+        <v>14049</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.04521</t>
+          <t>0.04518</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>f0243374-c667-4815-96be-30b8bcc2984e</t>
+          <t>d67e2002-a34f-4197-8b17-2c6d52e6cbc7</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Move Robot28 to location (2, 8) and remove the screws.</t>
+          <t>Move Robot26 to location (1, 3) and remove the screws.</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.604162</v>
+        <v>99.200013</v>
       </c>
       <c r="C11" t="n">
-        <v>14322</v>
+        <v>13552</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.0417</t>
+          <t>0.04236</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>c5fc9188-9081-4d54-8a29-f1acad614f12</t>
+          <t>9707ff1c-3274-4a14-9e91-8919b53217c3</t>
         </is>
       </c>
     </row>
